--- a/工数集計/output/temp2_全案件_景山 朋美_aggregate_results.xlsx
+++ b/工数集計/output/temp2_全案件_景山 朋美_aggregate_results.xlsx
@@ -440,7 +440,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="8.800000000000001" customWidth="1" min="1" max="1"/>
-    <col width="37.40000000000001" customWidth="1" min="2" max="2"/>
+    <col width="20.9" customWidth="1" min="2" max="2"/>
     <col width="9.9" customWidth="1" min="4" max="4"/>
     <col hidden="1" outlineLevel="1" width="7.700000000000001" customWidth="1" min="6" max="9"/>
     <col hidden="1" outlineLevel="1" width="13" customWidth="1" min="10" max="14"/>
@@ -574,14 +574,14 @@
         </is>
       </c>
       <c r="I2" s="1" t="n">
-        <v>45897</v>
+        <v>45944</v>
       </c>
       <c r="J2" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>不正データ調査</t>
+          <t>Tframe設計_レビュー前確認</t>
         </is>
       </c>
       <c r="L2">
@@ -598,12 +598,12 @@
       <c r="O2" s="2" t="n"/>
       <c r="P2" s="2" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>12:00</t>
         </is>
       </c>
     </row>
@@ -615,8 +615,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SMMN004:島村楽器:瑕疵対応</t>
-        </is>
+          <t>SMMs001:島村楽器サポート</t>
+        </is>
+      </c>
+      <c r="C3">
+        <f>SUMIFS(J:J, G:G,             A3, H:H, B3)</f>
+        <v/>
       </c>
       <c r="D3">
         <f>L3</f>
@@ -638,18 +642,18 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>SMMN004:島村楽器:瑕疵対応</t>
+          <t>SMMs001:島村楽器サポート</t>
         </is>
       </c>
       <c r="I3" s="1" t="n">
-        <v>45898</v>
+        <v>45933</v>
       </c>
       <c r="J3" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>調査,不具合改修内容調査（受講生－クラス　解除　論理削除から物理削除）</t>
+          <t xml:space="preserve"> API設計 </t>
         </is>
       </c>
       <c r="L3">
@@ -661,17 +665,17 @@
         <v/>
       </c>
       <c r="N3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O3" s="2" t="n"/>
       <c r="P3" s="2" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>12:00</t>
         </is>
       </c>
     </row>
@@ -683,12 +687,8 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SMMa011:島村楽器:追加改修（856）</t>
-        </is>
-      </c>
-      <c r="C4">
-        <f>SUMIFS(J:J, G:G,             A4, H:H, B4)</f>
-        <v/>
+          <t>SMMs001:島村楽器サポート</t>
+        </is>
       </c>
       <c r="D4">
         <f>L4</f>
@@ -710,18 +710,18 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>SMMa011:島村楽器:追加改修（856）</t>
+          <t>SMMs001:島村楽器サポート</t>
         </is>
       </c>
       <c r="I4" s="1" t="n">
-        <v>45887</v>
+        <v>45936</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>マージ依頼</t>
+          <t xml:space="preserve"> 教育,ディレクトリ運用</t>
         </is>
       </c>
       <c r="L4">
@@ -733,7 +733,7 @@
         <v/>
       </c>
       <c r="N4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O4" s="2" t="n"/>
       <c r="P4" s="2" t="inlineStr">
@@ -743,7 +743,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>16:00</t>
         </is>
       </c>
     </row>
@@ -755,7 +755,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SMMa011:島村楽器:追加改修（856）</t>
+          <t>SMMs001:島村楽器サポート</t>
         </is>
       </c>
       <c r="D5">
@@ -778,18 +778,18 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>SMMa011:島村楽器:追加改修（856）</t>
+          <t>SMMs001:島村楽器サポート</t>
         </is>
       </c>
       <c r="I5" s="1" t="n">
-        <v>45870</v>
+        <v>45931</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>教育,レビュー</t>
+          <t xml:space="preserve"> 調査,オプティズマイズテーブル</t>
         </is>
       </c>
       <c r="L5">
@@ -801,17 +801,17 @@
         <v/>
       </c>
       <c r="N5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O5" s="2" t="n"/>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>12:00</t>
         </is>
       </c>
     </row>
@@ -823,7 +823,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SMMa011:島村楽器:追加改修（856）</t>
+          <t>SMMs001:島村楽器サポート</t>
         </is>
       </c>
       <c r="D6">
@@ -846,18 +846,18 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>SMMa011:島村楽器:追加改修（856）</t>
+          <t>SMMs001:島村楽器サポート</t>
         </is>
       </c>
       <c r="I6" s="1" t="n">
-        <v>45883</v>
+        <v>45931</v>
       </c>
       <c r="J6" t="n">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>進捗管理,(島村)状況報告</t>
+          <t xml:space="preserve"> 調査,オプティズマイズテーブル</t>
         </is>
       </c>
       <c r="L6">
@@ -869,17 +869,17 @@
         <v/>
       </c>
       <c r="N6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O6" s="2" t="n"/>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>16:00</t>
         </is>
       </c>
     </row>
@@ -894,10 +894,6 @@
           <t>SMMs001:島村楽器サポート</t>
         </is>
       </c>
-      <c r="C7">
-        <f>SUMIFS(J:J, G:G,             A7, H:H, B7)</f>
-        <v/>
-      </c>
       <c r="D7">
         <f>L7</f>
         <v/>
@@ -922,14 +918,14 @@
         </is>
       </c>
       <c r="I7" s="1" t="n">
-        <v>45870</v>
+        <v>45932</v>
       </c>
       <c r="J7" t="n">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 瑕疵,メール不達問題</t>
+          <t>API設計</t>
         </is>
       </c>
       <c r="L7">
@@ -946,12 +942,12 @@
       <c r="O7" s="2" t="n"/>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>16:00</t>
         </is>
       </c>
     </row>
@@ -990,14 +986,14 @@
         </is>
       </c>
       <c r="I8" s="1" t="n">
-        <v>45883</v>
+        <v>45936</v>
       </c>
       <c r="J8" t="n">
         <v>1</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>DB更新,仮）大量料金データ移行</t>
+          <t>API設計書修正</t>
         </is>
       </c>
       <c r="L8">
@@ -1014,12 +1010,12 @@
       <c r="O8" s="2" t="n"/>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>18:00</t>
         </is>
       </c>
     </row>
@@ -1058,14 +1054,14 @@
         </is>
       </c>
       <c r="I9" s="1" t="n">
-        <v>45890</v>
+        <v>45950</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>DB更新,仮）大量料金データ移行</t>
+          <t>DB更新,OptimizeTable作業</t>
         </is>
       </c>
       <c r="L9">
@@ -1082,12 +1078,12 @@
       <c r="O9" s="2" t="n"/>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>12:00</t>
         </is>
       </c>
     </row>
@@ -1126,14 +1122,14 @@
         </is>
       </c>
       <c r="I10" s="1" t="n">
-        <v>45897</v>
+        <v>45947</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>DB更新,大量料金データ移行</t>
+          <t>DB更新,事前準備</t>
         </is>
       </c>
       <c r="L10">
@@ -1150,12 +1146,12 @@
       <c r="O10" s="2" t="n"/>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>15:00</t>
         </is>
       </c>
     </row>
@@ -1194,14 +1190,14 @@
         </is>
       </c>
       <c r="I11" s="1" t="n">
-        <v>45873</v>
+        <v>45947</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>シーズ対応,メール関連やり取り</t>
+          <t>UAT課題,課題内容整理</t>
         </is>
       </c>
       <c r="L11">
@@ -1218,12 +1214,12 @@
       <c r="O11" s="2" t="n"/>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>12:00</t>
         </is>
       </c>
     </row>
@@ -1262,14 +1258,14 @@
         </is>
       </c>
       <c r="I12" s="1" t="n">
-        <v>45898</v>
+        <v>45946</v>
       </c>
       <c r="J12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>シーズ対応,依頼メール送信（DKIM/DMARC設定）</t>
+          <t>UAT課題,課題整理</t>
         </is>
       </c>
       <c r="L12">
@@ -1286,12 +1282,12 @@
       <c r="O12" s="2" t="n"/>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>18:00</t>
         </is>
       </c>
     </row>
@@ -1330,14 +1326,14 @@
         </is>
       </c>
       <c r="I13" s="1" t="n">
-        <v>45887</v>
+        <v>45946</v>
       </c>
       <c r="J13" t="n">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>マニュアル作成</t>
+          <t>教育,(島村)状況報告</t>
         </is>
       </c>
       <c r="L13">
@@ -1354,12 +1350,12 @@
       <c r="O13" s="2" t="n"/>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>10:30</t>
         </is>
       </c>
     </row>
@@ -1398,14 +1394,14 @@
         </is>
       </c>
       <c r="I14" s="1" t="n">
-        <v>45890</v>
+        <v>45936</v>
       </c>
       <c r="J14" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>リリース関連,TR発行などのやり取り</t>
+          <t>教育,ディレクトリ運用</t>
         </is>
       </c>
       <c r="L14">
@@ -1427,7 +1423,7 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>12:00</t>
         </is>
       </c>
     </row>
@@ -1466,14 +1462,14 @@
         </is>
       </c>
       <c r="I15" s="1" t="n">
-        <v>45884</v>
+        <v>45946</v>
       </c>
       <c r="J15" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>リリース関連,マージ依頼</t>
+          <t>教育,レビュー関連やりとり</t>
         </is>
       </c>
       <c r="L15">
@@ -1490,7 +1486,7 @@
       <c r="O15" s="2" t="n"/>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
@@ -1534,14 +1530,14 @@
         </is>
       </c>
       <c r="I16" s="1" t="n">
-        <v>45870</v>
+        <v>45939</v>
       </c>
       <c r="J16" t="n">
         <v>0.5</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>教育,レビュー22-27</t>
+          <t>社内MTG,(島村)状況報告</t>
         </is>
       </c>
       <c r="L16">
@@ -1558,12 +1554,12 @@
       <c r="O16" s="2" t="n"/>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>10:30</t>
         </is>
       </c>
     </row>
@@ -1602,14 +1598,14 @@
         </is>
       </c>
       <c r="I17" s="1" t="n">
-        <v>45894</v>
+        <v>45932</v>
       </c>
       <c r="J17" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>教育,業務フローのレビュー</t>
+          <t>調査,オプティズマイズテーブル</t>
         </is>
       </c>
       <c r="L17">
@@ -1626,12 +1622,12 @@
       <c r="O17" s="2" t="n"/>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>12:00</t>
         </is>
       </c>
     </row>
@@ -1670,14 +1666,14 @@
         </is>
       </c>
       <c r="I18" s="1" t="n">
-        <v>45870</v>
+        <v>45932</v>
       </c>
       <c r="J18" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>瑕疵,メール不達問題</t>
+          <t>調査,料金（預り金ロジック整理）</t>
         </is>
       </c>
       <c r="L18">
@@ -1694,12 +1690,12 @@
       <c r="O18" s="2" t="n"/>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:30</t>
         </is>
       </c>
     </row>
@@ -1738,14 +1734,14 @@
         </is>
       </c>
       <c r="I19" s="1" t="n">
-        <v>45898</v>
+        <v>45936</v>
       </c>
       <c r="J19" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>見積,MYSQLアップデート対応</t>
+          <t>調査,本番SQLエラー</t>
         </is>
       </c>
       <c r="L19">
@@ -1767,7 +1763,7 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>10:30</t>
         </is>
       </c>
     </row>
@@ -1806,14 +1802,14 @@
         </is>
       </c>
       <c r="I20" s="1" t="n">
-        <v>45897</v>
+        <v>45950</v>
       </c>
       <c r="J20" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>見積,MYSQL見積もり情報集め</t>
+          <t>調査,本番環境で発生したSQLエラーの正体</t>
         </is>
       </c>
       <c r="L20">
@@ -1830,12 +1826,12 @@
       <c r="O20" s="2" t="n"/>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>16:30</t>
         </is>
       </c>
     </row>
@@ -1874,14 +1870,14 @@
         </is>
       </c>
       <c r="I21" s="1" t="n">
-        <v>45887</v>
+        <v>45944</v>
       </c>
       <c r="J21" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>見積,UAT課題が元ネタ</t>
+          <t>資料作成（内部向け）,CRUD図</t>
         </is>
       </c>
       <c r="L21">
@@ -1898,12 +1894,12 @@
       <c r="O21" s="2" t="n"/>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>18:00</t>
         </is>
       </c>
     </row>
@@ -1942,14 +1938,14 @@
         </is>
       </c>
       <c r="I22" s="1" t="n">
-        <v>45873</v>
+        <v>45937</v>
       </c>
       <c r="J22" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>資料作成（内部向け）,SPFレコード対応</t>
+          <t>資料作成（内部向け）,CRUD図の更新</t>
         </is>
       </c>
       <c r="L22">
@@ -1966,12 +1962,12 @@
       <c r="O22" s="2" t="n"/>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>15:00</t>
         </is>
       </c>
     </row>
@@ -2010,14 +2006,14 @@
         </is>
       </c>
       <c r="I23" s="1" t="n">
-        <v>45894</v>
+        <v>45932</v>
       </c>
       <c r="J23" t="n">
         <v>1</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>資料作成（内部向け）,TCNSのメール配信時のFromアドレスについて</t>
+          <t>進捗管理,(島村)状況報告</t>
         </is>
       </c>
       <c r="L23">
@@ -2034,12 +2030,12 @@
       <c r="O23" s="2" t="n"/>
       <c r="P23" s="2" t="inlineStr">
         <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
           <t>11:00</t>
-        </is>
-      </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>12:00</t>
         </is>
       </c>
     </row>
@@ -2078,14 +2074,14 @@
         </is>
       </c>
       <c r="I24" s="1" t="n">
-        <v>45875</v>
+        <v>45939</v>
       </c>
       <c r="J24" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>資料作成（内部向け）,報告資料⇒メール不達　SPFレコード追加</t>
+          <t>進捗管理,毎週状況確認</t>
         </is>
       </c>
       <c r="L24">
@@ -2102,12 +2098,12 @@
       <c r="O24" s="2" t="n"/>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>11:00</t>
         </is>
       </c>
     </row>
@@ -2119,8 +2115,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SMMs001:島村楽器サポート</t>
-        </is>
+          <t>TCNZ001:社内業務等</t>
+        </is>
+      </c>
+      <c r="C25">
+        <f>SUMIFS(J:J, G:G,             A25, H:H, B25)</f>
+        <v/>
       </c>
       <c r="D25">
         <f>L25</f>
@@ -2142,18 +2142,18 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>SMMs001:島村楽器サポート</t>
+          <t>TCNZ001:社内業務等</t>
         </is>
       </c>
       <c r="I25" s="1" t="n">
-        <v>45874</v>
+        <v>45931</v>
       </c>
       <c r="J25" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>資料作成（内部向け）,大量データの扱い</t>
+          <t>AI勉強会</t>
         </is>
       </c>
       <c r="L25">
@@ -2165,17 +2165,17 @@
         <v/>
       </c>
       <c r="N25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O25" s="2" t="n"/>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>18:00</t>
         </is>
       </c>
     </row>
@@ -2187,7 +2187,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>SMMs001:島村楽器サポート</t>
+          <t>TCNZ001:社内業務等</t>
         </is>
       </c>
       <c r="D26">
@@ -2210,18 +2210,18 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>SMMs001:島村楽器サポート</t>
+          <t>TCNZ001:社内業務等</t>
         </is>
       </c>
       <c r="I26" s="1" t="n">
-        <v>45887</v>
+        <v>45933</v>
       </c>
       <c r="J26" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>資料作成（外部向け）,情シス向けの文面作成</t>
+          <t>AI勉強会_1回目</t>
         </is>
       </c>
       <c r="L26">
@@ -2233,17 +2233,17 @@
         <v/>
       </c>
       <c r="N26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O26" s="2" t="n"/>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>16:00</t>
         </is>
       </c>
     </row>
@@ -2255,7 +2255,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>SMMs001:島村楽器サポート</t>
+          <t>TCNZ001:社内業務等</t>
         </is>
       </c>
       <c r="D27">
@@ -2278,18 +2278,18 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>SMMs001:島村楽器サポート</t>
+          <t>TCNZ001:社内業務等</t>
         </is>
       </c>
       <c r="I27" s="1" t="n">
-        <v>45897</v>
+        <v>45936</v>
       </c>
       <c r="J27" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>進捗管理,(島村)状況報告</t>
+          <t>AI勉強会_内容整理</t>
         </is>
       </c>
       <c r="L27">
@@ -2301,17 +2301,17 @@
         <v/>
       </c>
       <c r="N27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O27" s="2" t="n"/>
       <c r="P27" s="2" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>17:00</t>
         </is>
       </c>
     </row>
@@ -2323,7 +2323,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>SMMs001:島村楽器サポート</t>
+          <t>TCNZ001:社内業務等</t>
         </is>
       </c>
       <c r="D28">
@@ -2346,18 +2346,18 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>SMMs001:島村楽器サポート</t>
+          <t>TCNZ001:社内業務等</t>
         </is>
       </c>
       <c r="I28" s="1" t="n">
-        <v>45876</v>
+        <v>45933</v>
       </c>
       <c r="J28" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>進捗管理,島村定期報告</t>
+          <t>AI勉強会の後処理</t>
         </is>
       </c>
       <c r="L28">
@@ -2369,17 +2369,17 @@
         <v/>
       </c>
       <c r="N28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O28" s="2" t="n"/>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>18:00</t>
         </is>
       </c>
     </row>
@@ -2391,7 +2391,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>SMMs001:島村楽器サポート</t>
+          <t>TCNZ001:社内業務等</t>
         </is>
       </c>
       <c r="D29">
@@ -2414,18 +2414,18 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>SMMs001:島村楽器サポート</t>
+          <t>TCNZ001:社内業務等</t>
         </is>
       </c>
       <c r="I29" s="1" t="n">
-        <v>45895</v>
+        <v>45932</v>
       </c>
       <c r="J29" t="n">
         <v>2</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>進捗管理,島村状況整理</t>
+          <t>AI勉強会の準備</t>
         </is>
       </c>
       <c r="L29">
@@ -2437,7 +2437,7 @@
         <v/>
       </c>
       <c r="N29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O29" s="2" t="n"/>
       <c r="P29" s="2" t="inlineStr">
@@ -2459,7 +2459,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>SMMs001:島村楽器サポート</t>
+          <t>TCNZ001:社内業務等</t>
         </is>
       </c>
       <c r="D30">
@@ -2482,18 +2482,18 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>SMMs001:島村楽器サポート</t>
+          <t>TCNZ001:社内業務等</t>
         </is>
       </c>
       <c r="I30" s="1" t="n">
-        <v>45897</v>
+        <v>45950</v>
       </c>
       <c r="J30" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>進捗管理,状況や残タスク整理</t>
+          <t>AI活用パターンの検討</t>
         </is>
       </c>
       <c r="L30">
@@ -2505,17 +2505,17 @@
         <v/>
       </c>
       <c r="N30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O30" s="2" t="n"/>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>18:00</t>
         </is>
       </c>
     </row>
@@ -2530,10 +2530,6 @@
           <t>TCNZ001:社内業務等</t>
         </is>
       </c>
-      <c r="C31">
-        <f>SUMIFS(J:J, G:G,             A31, H:H, B31)</f>
-        <v/>
-      </c>
       <c r="D31">
         <f>L31</f>
         <v/>
@@ -2558,14 +2554,14 @@
         </is>
       </c>
       <c r="I31" s="1" t="n">
-        <v>45884</v>
+        <v>45937</v>
       </c>
       <c r="J31" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>AI勉強会準備</t>
+          <t>AI活用方法_検討</t>
         </is>
       </c>
       <c r="L31">
@@ -2582,12 +2578,12 @@
       <c r="O31" s="2" t="n"/>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>12:00</t>
         </is>
       </c>
     </row>
@@ -2626,14 +2622,14 @@
         </is>
       </c>
       <c r="I32" s="1" t="n">
-        <v>45884</v>
+        <v>45947</v>
       </c>
       <c r="J32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Pマーク</t>
+          <t>サポートMTG内容理解</t>
         </is>
       </c>
       <c r="L32">
@@ -2650,12 +2646,12 @@
       <c r="O32" s="2" t="n"/>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>18:00</t>
         </is>
       </c>
     </row>
@@ -2694,14 +2690,14 @@
         </is>
       </c>
       <c r="I33" s="1" t="n">
-        <v>45887</v>
+        <v>45947</v>
       </c>
       <c r="J33" t="n">
         <v>1</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>サポミ内容理解</t>
+          <t>サポート全体MTG</t>
         </is>
       </c>
       <c r="L33">
@@ -2718,12 +2714,12 @@
       <c r="O33" s="2" t="n"/>
       <c r="P33" s="2" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>16:00</t>
         </is>
       </c>
     </row>
@@ -2762,14 +2758,14 @@
         </is>
       </c>
       <c r="I34" s="1" t="n">
-        <v>45884</v>
+        <v>45931</v>
       </c>
       <c r="J34" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>サポミ準備</t>
+          <t>各種雑務</t>
         </is>
       </c>
       <c r="L34">
@@ -2786,12 +2782,12 @@
       <c r="O34" s="2" t="n"/>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>09:30</t>
         </is>
       </c>
     </row>
@@ -2830,14 +2826,14 @@
         </is>
       </c>
       <c r="I35" s="1" t="n">
-        <v>45898</v>
+        <v>45932</v>
       </c>
       <c r="J35" t="n">
         <v>0.5</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>サポートMTG内容振り返り</t>
+          <t>各種雑務</t>
         </is>
       </c>
       <c r="L35">
@@ -2854,12 +2850,12 @@
       <c r="O35" s="2" t="n"/>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>09:30</t>
         </is>
       </c>
     </row>
@@ -2898,14 +2894,14 @@
         </is>
       </c>
       <c r="I36" s="1" t="n">
-        <v>45884</v>
+        <v>45933</v>
       </c>
       <c r="J36" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>サポート全体MTG</t>
+          <t>各種雑務</t>
         </is>
       </c>
       <c r="L36">
@@ -2922,12 +2918,12 @@
       <c r="O36" s="2" t="n"/>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>09:30</t>
         </is>
       </c>
     </row>
@@ -2966,7 +2962,7 @@
         </is>
       </c>
       <c r="I37" s="1" t="n">
-        <v>45870</v>
+        <v>45936</v>
       </c>
       <c r="J37" t="n">
         <v>0.5</v>
@@ -3034,7 +3030,7 @@
         </is>
       </c>
       <c r="I38" s="1" t="n">
-        <v>45873</v>
+        <v>45937</v>
       </c>
       <c r="J38" t="n">
         <v>0.5</v>
@@ -3102,7 +3098,7 @@
         </is>
       </c>
       <c r="I39" s="1" t="n">
-        <v>45874</v>
+        <v>45938</v>
       </c>
       <c r="J39" t="n">
         <v>0.5</v>
@@ -3170,7 +3166,7 @@
         </is>
       </c>
       <c r="I40" s="1" t="n">
-        <v>45875</v>
+        <v>45939</v>
       </c>
       <c r="J40" t="n">
         <v>0.5</v>
@@ -3238,7 +3234,7 @@
         </is>
       </c>
       <c r="I41" s="1" t="n">
-        <v>45876</v>
+        <v>45944</v>
       </c>
       <c r="J41" t="n">
         <v>0.5</v>
@@ -3306,7 +3302,7 @@
         </is>
       </c>
       <c r="I42" s="1" t="n">
-        <v>45877</v>
+        <v>45945</v>
       </c>
       <c r="J42" t="n">
         <v>0.5</v>
@@ -3374,10 +3370,10 @@
         </is>
       </c>
       <c r="I43" s="1" t="n">
-        <v>45881</v>
+        <v>45946</v>
       </c>
       <c r="J43" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -3403,7 +3399,7 @@
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>10:00</t>
         </is>
       </c>
     </row>
@@ -3442,7 +3438,7 @@
         </is>
       </c>
       <c r="I44" s="1" t="n">
-        <v>45882</v>
+        <v>45947</v>
       </c>
       <c r="J44" t="n">
         <v>0.5</v>
@@ -3510,7 +3506,7 @@
         </is>
       </c>
       <c r="I45" s="1" t="n">
-        <v>45883</v>
+        <v>45951</v>
       </c>
       <c r="J45" t="n">
         <v>0.5</v>
@@ -3551,8 +3547,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>TCNZ001:社内業務等</t>
-        </is>
+          <t>TCNz004:新SMS開発</t>
+        </is>
+      </c>
+      <c r="C46">
+        <f>SUMIFS(J:J, G:G,             A46, H:H, B46)</f>
+        <v/>
       </c>
       <c r="D46">
         <f>L46</f>
@@ -3574,18 +3574,18 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>TCNZ001:社内業務等</t>
+          <t>TCNz004:新SMS開発</t>
         </is>
       </c>
       <c r="I46" s="1" t="n">
-        <v>45884</v>
+        <v>45933</v>
       </c>
       <c r="J46" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>各種雑務</t>
+          <t xml:space="preserve"> API設計</t>
         </is>
       </c>
       <c r="L46">
@@ -3602,12 +3602,12 @@
       <c r="O46" s="2" t="n"/>
       <c r="P46" s="2" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>15:00</t>
         </is>
       </c>
     </row>
@@ -3619,7 +3619,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>TCNZ001:社内業務等</t>
+          <t>TCNz004:新SMS開発</t>
         </is>
       </c>
       <c r="D47">
@@ -3642,18 +3642,18 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>TCNZ001:社内業務等</t>
+          <t>TCNz004:新SMS開発</t>
         </is>
       </c>
       <c r="I47" s="1" t="n">
-        <v>45887</v>
+        <v>45944</v>
       </c>
       <c r="J47" t="n">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>各種雑務</t>
+          <t xml:space="preserve"> Tframe設計_レビュー後対応</t>
         </is>
       </c>
       <c r="L47">
@@ -3670,12 +3670,12 @@
       <c r="O47" s="2" t="n"/>
       <c r="P47" s="2" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>16:00</t>
         </is>
       </c>
     </row>
@@ -3687,7 +3687,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>TCNZ001:社内業務等</t>
+          <t>TCNz004:新SMS開発</t>
         </is>
       </c>
       <c r="D48">
@@ -3710,18 +3710,18 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>TCNZ001:社内業務等</t>
+          <t>TCNz004:新SMS開発</t>
         </is>
       </c>
       <c r="I48" s="1" t="n">
-        <v>45888</v>
+        <v>45932</v>
       </c>
       <c r="J48" t="n">
         <v>0.5</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>各種雑務</t>
+          <t>API設計</t>
         </is>
       </c>
       <c r="L48">
@@ -3738,12 +3738,12 @@
       <c r="O48" s="2" t="n"/>
       <c r="P48" s="2" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>10:00</t>
         </is>
       </c>
     </row>
@@ -3755,7 +3755,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>TCNZ001:社内業務等</t>
+          <t>TCNz004:新SMS開発</t>
         </is>
       </c>
       <c r="D49">
@@ -3778,18 +3778,18 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>TCNZ001:社内業務等</t>
+          <t>TCNz004:新SMS開発</t>
         </is>
       </c>
       <c r="I49" s="1" t="n">
-        <v>45889</v>
+        <v>45938</v>
       </c>
       <c r="J49" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>各種雑務</t>
+          <t>API設計書</t>
         </is>
       </c>
       <c r="L49">
@@ -3806,12 +3806,12 @@
       <c r="O49" s="2" t="n"/>
       <c r="P49" s="2" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>12:00</t>
         </is>
       </c>
     </row>
@@ -3823,7 +3823,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>TCNZ001:社内業務等</t>
+          <t>TCNz004:新SMS開発</t>
         </is>
       </c>
       <c r="D50">
@@ -3846,18 +3846,18 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>TCNZ001:社内業務等</t>
+          <t>TCNz004:新SMS開発</t>
         </is>
       </c>
       <c r="I50" s="1" t="n">
-        <v>45890</v>
+        <v>45938</v>
       </c>
       <c r="J50" t="n">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>各種雑務</t>
+          <t>API設計書</t>
         </is>
       </c>
       <c r="L50">
@@ -3874,12 +3874,12 @@
       <c r="O50" s="2" t="n"/>
       <c r="P50" s="2" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>18:00</t>
         </is>
       </c>
     </row>
@@ -3891,7 +3891,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>TCNZ001:社内業務等</t>
+          <t>TCNz004:新SMS開発</t>
         </is>
       </c>
       <c r="D51">
@@ -3914,18 +3914,18 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>TCNZ001:社内業務等</t>
+          <t>TCNz004:新SMS開発</t>
         </is>
       </c>
       <c r="I51" s="1" t="n">
-        <v>45894</v>
+        <v>45939</v>
       </c>
       <c r="J51" t="n">
         <v>0.5</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>各種雑務</t>
+          <t>API設計書</t>
         </is>
       </c>
       <c r="L51">
@@ -3942,12 +3942,12 @@
       <c r="O51" s="2" t="n"/>
       <c r="P51" s="2" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>10:00</t>
         </is>
       </c>
     </row>
@@ -3959,7 +3959,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>TCNZ001:社内業務等</t>
+          <t>TCNz004:新SMS開発</t>
         </is>
       </c>
       <c r="D52">
@@ -3982,18 +3982,18 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>TCNZ001:社内業務等</t>
+          <t>TCNz004:新SMS開発</t>
         </is>
       </c>
       <c r="I52" s="1" t="n">
-        <v>45895</v>
+        <v>45939</v>
       </c>
       <c r="J52" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>各種雑務</t>
+          <t>API設計書</t>
         </is>
       </c>
       <c r="L52">
@@ -4010,12 +4010,12 @@
       <c r="O52" s="2" t="n"/>
       <c r="P52" s="2" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>12:00</t>
         </is>
       </c>
     </row>
@@ -4027,7 +4027,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>TCNZ001:社内業務等</t>
+          <t>TCNz004:新SMS開発</t>
         </is>
       </c>
       <c r="D53">
@@ -4050,18 +4050,18 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>TCNZ001:社内業務等</t>
+          <t>TCNz004:新SMS開発</t>
         </is>
       </c>
       <c r="I53" s="1" t="n">
-        <v>45896</v>
+        <v>45939</v>
       </c>
       <c r="J53" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>各種雑務</t>
+          <t>API設計書</t>
         </is>
       </c>
       <c r="L53">
@@ -4078,12 +4078,12 @@
       <c r="O53" s="2" t="n"/>
       <c r="P53" s="2" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>13:00</t>
         </is>
       </c>
     </row>
@@ -4095,7 +4095,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>TCNZ001:社内業務等</t>
+          <t>TCNz004:新SMS開発</t>
         </is>
       </c>
       <c r="D54">
@@ -4118,18 +4118,18 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>TCNZ001:社内業務等</t>
+          <t>TCNz004:新SMS開発</t>
         </is>
       </c>
       <c r="I54" s="1" t="n">
-        <v>45897</v>
+        <v>45945</v>
       </c>
       <c r="J54" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>各種雑務</t>
+          <t>Tframe_設計書</t>
         </is>
       </c>
       <c r="L54">
@@ -4146,12 +4146,12 @@
       <c r="O54" s="2" t="n"/>
       <c r="P54" s="2" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>12:00</t>
         </is>
       </c>
     </row>
@@ -4163,7 +4163,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>TCNZ001:社内業務等</t>
+          <t>TCNz004:新SMS開発</t>
         </is>
       </c>
       <c r="D55">
@@ -4186,18 +4186,18 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>TCNZ001:社内業務等</t>
+          <t>TCNz004:新SMS開発</t>
         </is>
       </c>
       <c r="I55" s="1" t="n">
-        <v>45898</v>
+        <v>45945</v>
       </c>
       <c r="J55" t="n">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>各種雑務</t>
+          <t>Tframe_設計書</t>
         </is>
       </c>
       <c r="L55">
@@ -4214,12 +4214,12 @@
       <c r="O55" s="2" t="n"/>
       <c r="P55" s="2" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>18:00</t>
         </is>
       </c>
     </row>
@@ -4231,7 +4231,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>TCNZ001:社内業務等</t>
+          <t>TCNz004:新SMS開発</t>
         </is>
       </c>
       <c r="D56">
@@ -4254,18 +4254,18 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>TCNZ001:社内業務等</t>
+          <t>TCNz004:新SMS開発</t>
         </is>
       </c>
       <c r="I56" s="1" t="n">
-        <v>45883</v>
+        <v>45950</v>
       </c>
       <c r="J56" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>景山【会議室】【面談】</t>
+          <t>テストデータ準備</t>
         </is>
       </c>
       <c r="L56">
@@ -4282,12 +4282,12 @@
       <c r="O56" s="2" t="n"/>
       <c r="P56" s="2" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>15:00</t>
         </is>
       </c>
     </row>
@@ -4299,7 +4299,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>TCNZ001:社内業務等</t>
+          <t>TCNz004:新SMS開発</t>
         </is>
       </c>
       <c r="D57">
@@ -4322,18 +4322,18 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>TCNZ001:社内業務等</t>
+          <t>TCNz004:新SMS開発</t>
         </is>
       </c>
       <c r="I57" s="1" t="n">
-        <v>45896</v>
+        <v>45937</v>
       </c>
       <c r="J57" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>生成AI勉強会の準備</t>
+          <t>設計:Tframe</t>
         </is>
       </c>
       <c r="L57">
@@ -4350,3014 +4350,190 @@
       <c r="O57" s="2" t="n"/>
       <c r="P57" s="2" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>18:00</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>景山 朋美</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>TCNZ001:社内業務等</t>
-        </is>
-      </c>
-      <c r="D58">
-        <f>L58</f>
-        <v/>
-      </c>
-      <c r="E58">
-        <f>SUMIFS(J:J, G:G,             A58, H:H, B58, L:L, L58)</f>
-        <v/>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>景山 朋美</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>TCNZ001:社内業務等</t>
-        </is>
-      </c>
-      <c r="I58" s="1" t="n">
-        <v>45887</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>生成AI勉強会資料作成</t>
-        </is>
-      </c>
-      <c r="L58">
-        <f>IFERROR(LEFT(K58,             FIND(",", K58) - 1), "-")</f>
-        <v/>
-      </c>
-      <c r="M58">
-        <f>IFERROR(MID(K58,             FIND(",", K58) + 1, LEN(K58) - FIND(",", K58)), K58)</f>
-        <v/>
-      </c>
-      <c r="N58" t="n">
-        <v>5</v>
-      </c>
       <c r="O58" s="2" t="n"/>
-      <c r="P58" s="2" t="inlineStr">
-        <is>
-          <t>10:30</t>
-        </is>
-      </c>
-      <c r="Q58" t="inlineStr">
-        <is>
-          <t>11:00</t>
-        </is>
-      </c>
+      <c r="P58" s="2" t="n"/>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>景山 朋美</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>TCNZ001:社内業務等</t>
-        </is>
-      </c>
-      <c r="D59">
-        <f>L59</f>
-        <v/>
-      </c>
-      <c r="E59">
-        <f>SUMIFS(J:J, G:G,             A59, H:H, B59, L:L, L59)</f>
-        <v/>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>景山 朋美</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>TCNZ001:社内業務等</t>
-        </is>
-      </c>
-      <c r="I59" s="1" t="n">
-        <v>45894</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>確認:連絡機能</t>
-        </is>
-      </c>
-      <c r="L59">
-        <f>IFERROR(LEFT(K59,             FIND(",", K59) - 1), "-")</f>
-        <v/>
-      </c>
-      <c r="M59">
-        <f>IFERROR(MID(K59,             FIND(",", K59) + 1, LEN(K59) - FIND(",", K59)), K59)</f>
-        <v/>
-      </c>
-      <c r="N59" t="n">
-        <v>5</v>
-      </c>
       <c r="O59" s="2" t="n"/>
-      <c r="P59" s="2" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="Q59" t="inlineStr">
-        <is>
-          <t>13:30</t>
-        </is>
-      </c>
+      <c r="P59" s="2" t="n"/>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>景山 朋美</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>TCNZ001:社内業務等</t>
-        </is>
-      </c>
-      <c r="D60">
-        <f>L60</f>
-        <v/>
-      </c>
-      <c r="E60">
-        <f>SUMIFS(J:J, G:G,             A60, H:H, B60, L:L, L60)</f>
-        <v/>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>景山 朋美</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>TCNZ001:社内業務等</t>
-        </is>
-      </c>
-      <c r="I60" s="1" t="n">
-        <v>45898</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>社内MTG,週次報告やMySQLの見積もり</t>
-        </is>
-      </c>
-      <c r="L60">
-        <f>IFERROR(LEFT(K60,             FIND(",", K60) - 1), "-")</f>
-        <v/>
-      </c>
-      <c r="M60">
-        <f>IFERROR(MID(K60,             FIND(",", K60) + 1, LEN(K60) - FIND(",", K60)), K60)</f>
-        <v/>
-      </c>
-      <c r="N60" t="n">
-        <v>5</v>
-      </c>
       <c r="O60" s="2" t="n"/>
-      <c r="P60" s="2" t="inlineStr">
-        <is>
-          <t>11:00</t>
-        </is>
-      </c>
-      <c r="Q60" t="inlineStr">
-        <is>
-          <t>11:30</t>
-        </is>
-      </c>
+      <c r="P60" s="2" t="n"/>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>景山 朋美</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>TCNZ001:社内業務等</t>
-        </is>
-      </c>
-      <c r="D61">
-        <f>L61</f>
-        <v/>
-      </c>
-      <c r="E61">
-        <f>SUMIFS(J:J, G:G,             A61, H:H, B61, L:L, L61)</f>
-        <v/>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>景山 朋美</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>TCNZ001:社内業務等</t>
-        </is>
-      </c>
-      <c r="I61" s="1" t="n">
-        <v>45898</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>経費精算書</t>
-        </is>
-      </c>
-      <c r="L61">
-        <f>IFERROR(LEFT(K61,             FIND(",", K61) - 1), "-")</f>
-        <v/>
-      </c>
-      <c r="M61">
-        <f>IFERROR(MID(K61,             FIND(",", K61) + 1, LEN(K61) - FIND(",", K61)), K61)</f>
-        <v/>
-      </c>
-      <c r="N61" t="n">
-        <v>5</v>
-      </c>
       <c r="O61" s="2" t="n"/>
-      <c r="P61" s="2" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="Q61" t="inlineStr">
-        <is>
-          <t>13:30</t>
-        </is>
-      </c>
+      <c r="P61" s="2" t="n"/>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>景山 朋美</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>TCNZ001:社内業務等</t>
-        </is>
-      </c>
-      <c r="D62">
-        <f>L62</f>
-        <v/>
-      </c>
-      <c r="E62">
-        <f>SUMIFS(J:J, G:G,             A62, H:H, B62, L:L, L62)</f>
-        <v/>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>景山 朋美</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>TCNZ001:社内業務等</t>
-        </is>
-      </c>
-      <c r="I62" s="1" t="n">
-        <v>45882</v>
-      </c>
-      <c r="J62" t="n">
-        <v>1</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>面談準備</t>
-        </is>
-      </c>
-      <c r="L62">
-        <f>IFERROR(LEFT(K62,             FIND(",", K62) - 1), "-")</f>
-        <v/>
-      </c>
-      <c r="M62">
-        <f>IFERROR(MID(K62,             FIND(",", K62) + 1, LEN(K62) - FIND(",", K62)), K62)</f>
-        <v/>
-      </c>
-      <c r="N62" t="n">
-        <v>5</v>
-      </c>
       <c r="O62" s="2" t="n"/>
-      <c r="P62" s="2" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="Q62" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
+      <c r="P62" s="2" t="n"/>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>景山 朋美</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>TCNz004:新SMS開発</t>
-        </is>
-      </c>
-      <c r="C63">
-        <f>SUMIFS(J:J, G:G,             A63, H:H, B63)</f>
-        <v/>
-      </c>
-      <c r="D63">
-        <f>L63</f>
-        <v/>
-      </c>
-      <c r="E63">
-        <f>SUMIFS(J:J, G:G,             A63, H:H, B63, L:L, L63)</f>
-        <v/>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>景山 朋美</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>TCNz004:新SMS開発</t>
-        </is>
-      </c>
-      <c r="I63" s="1" t="n">
-        <v>45874</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>TframeMTG</t>
-        </is>
-      </c>
-      <c r="L63">
-        <f>IFERROR(LEFT(K63,             FIND(",", K63) - 1), "-")</f>
-        <v/>
-      </c>
-      <c r="M63">
-        <f>IFERROR(MID(K63,             FIND(",", K63) + 1, LEN(K63) - FIND(",", K63)), K63)</f>
-        <v/>
-      </c>
-      <c r="N63" t="n">
-        <v>5</v>
-      </c>
       <c r="O63" s="2" t="n"/>
-      <c r="P63" s="2" t="inlineStr">
-        <is>
-          <t>15:30</t>
-        </is>
-      </c>
-      <c r="Q63" t="inlineStr">
-        <is>
-          <t>16:30</t>
-        </is>
-      </c>
+      <c r="P63" s="2" t="n"/>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>景山 朋美</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>TCNz004:新SMS開発</t>
-        </is>
-      </c>
-      <c r="D64">
-        <f>L64</f>
-        <v/>
-      </c>
-      <c r="E64">
-        <f>SUMIFS(J:J, G:G,             A64, H:H, B64, L:L, L64)</f>
-        <v/>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>景山 朋美</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>TCNz004:新SMS開発</t>
-        </is>
-      </c>
-      <c r="I64" s="1" t="n">
-        <v>45888</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>マニュアルの更新</t>
-        </is>
-      </c>
-      <c r="L64">
-        <f>IFERROR(LEFT(K64,             FIND(",", K64) - 1), "-")</f>
-        <v/>
-      </c>
-      <c r="M64">
-        <f>IFERROR(MID(K64,             FIND(",", K64) + 1, LEN(K64) - FIND(",", K64)), K64)</f>
-        <v/>
-      </c>
-      <c r="N64" t="n">
-        <v>5</v>
-      </c>
       <c r="O64" s="2" t="n"/>
-      <c r="P64" s="2" t="inlineStr">
-        <is>
-          <t>09:30</t>
-        </is>
-      </c>
-      <c r="Q64" t="inlineStr">
-        <is>
-          <t>12:00</t>
-        </is>
-      </c>
+      <c r="P64" s="2" t="n"/>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>景山 朋美</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>TCNz004:新SMS開発</t>
-        </is>
-      </c>
-      <c r="D65">
-        <f>L65</f>
-        <v/>
-      </c>
-      <c r="E65">
-        <f>SUMIFS(J:J, G:G,             A65, H:H, B65, L:L, L65)</f>
-        <v/>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>景山 朋美</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>TCNz004:新SMS開発</t>
-        </is>
-      </c>
-      <c r="I65" s="1" t="n">
-        <v>45888</v>
-      </c>
-      <c r="J65" t="n">
-        <v>5</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>マニュアルの更新</t>
-        </is>
-      </c>
-      <c r="L65">
-        <f>IFERROR(LEFT(K65,             FIND(",", K65) - 1), "-")</f>
-        <v/>
-      </c>
-      <c r="M65">
-        <f>IFERROR(MID(K65,             FIND(",", K65) + 1, LEN(K65) - FIND(",", K65)), K65)</f>
-        <v/>
-      </c>
-      <c r="N65" t="n">
-        <v>5</v>
-      </c>
       <c r="O65" s="2" t="n"/>
-      <c r="P65" s="2" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="Q65" t="inlineStr">
-        <is>
-          <t>18:00</t>
-        </is>
-      </c>
+      <c r="P65" s="2" t="n"/>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>景山 朋美</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>TCNz004:新SMS開発</t>
-        </is>
-      </c>
-      <c r="D66">
-        <f>L66</f>
-        <v/>
-      </c>
-      <c r="E66">
-        <f>SUMIFS(J:J, G:G,             A66, H:H, B66, L:L, L66)</f>
-        <v/>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>景山 朋美</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>TCNz004:新SMS開発</t>
-        </is>
-      </c>
-      <c r="I66" s="1" t="n">
-        <v>45875</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>マニュアル作成</t>
-        </is>
-      </c>
-      <c r="L66">
-        <f>IFERROR(LEFT(K66,             FIND(",", K66) - 1), "-")</f>
-        <v/>
-      </c>
-      <c r="M66">
-        <f>IFERROR(MID(K66,             FIND(",", K66) + 1, LEN(K66) - FIND(",", K66)), K66)</f>
-        <v/>
-      </c>
-      <c r="N66" t="n">
-        <v>5</v>
-      </c>
       <c r="O66" s="2" t="n"/>
-      <c r="P66" s="2" t="inlineStr">
-        <is>
-          <t>09:30</t>
-        </is>
-      </c>
-      <c r="Q66" t="inlineStr">
-        <is>
-          <t>12:00</t>
-        </is>
-      </c>
+      <c r="P66" s="2" t="n"/>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>景山 朋美</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>TCNz004:新SMS開発</t>
-        </is>
-      </c>
-      <c r="D67">
-        <f>L67</f>
-        <v/>
-      </c>
-      <c r="E67">
-        <f>SUMIFS(J:J, G:G,             A67, H:H, B67, L:L, L67)</f>
-        <v/>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>景山 朋美</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>TCNz004:新SMS開発</t>
-        </is>
-      </c>
-      <c r="I67" s="1" t="n">
-        <v>45875</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>マニュアル作成</t>
-        </is>
-      </c>
-      <c r="L67">
-        <f>IFERROR(LEFT(K67,             FIND(",", K67) - 1), "-")</f>
-        <v/>
-      </c>
-      <c r="M67">
-        <f>IFERROR(MID(K67,             FIND(",", K67) + 1, LEN(K67) - FIND(",", K67)), K67)</f>
-        <v/>
-      </c>
-      <c r="N67" t="n">
-        <v>5</v>
-      </c>
       <c r="O67" s="2" t="n"/>
-      <c r="P67" s="2" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="Q67" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
+      <c r="P67" s="2" t="n"/>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>景山 朋美</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>TCNz004:新SMS開発</t>
-        </is>
-      </c>
-      <c r="D68">
-        <f>L68</f>
-        <v/>
-      </c>
-      <c r="E68">
-        <f>SUMIFS(J:J, G:G,             A68, H:H, B68, L:L, L68)</f>
-        <v/>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>景山 朋美</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>TCNz004:新SMS開発</t>
-        </is>
-      </c>
-      <c r="I68" s="1" t="n">
-        <v>45875</v>
-      </c>
-      <c r="J68" t="n">
-        <v>3</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>マニュアル作成</t>
-        </is>
-      </c>
-      <c r="L68">
-        <f>IFERROR(LEFT(K68,             FIND(",", K68) - 1), "-")</f>
-        <v/>
-      </c>
-      <c r="M68">
-        <f>IFERROR(MID(K68,             FIND(",", K68) + 1, LEN(K68) - FIND(",", K68)), K68)</f>
-        <v/>
-      </c>
-      <c r="N68" t="n">
-        <v>5</v>
-      </c>
       <c r="O68" s="2" t="n"/>
-      <c r="P68" s="2" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-      <c r="Q68" t="inlineStr">
-        <is>
-          <t>18:00</t>
-        </is>
-      </c>
+      <c r="P68" s="2" t="n"/>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>景山 朋美</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>TCNz004:新SMS開発</t>
-        </is>
-      </c>
-      <c r="D69">
-        <f>L69</f>
-        <v/>
-      </c>
-      <c r="E69">
-        <f>SUMIFS(J:J, G:G,             A69, H:H, B69, L:L, L69)</f>
-        <v/>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>景山 朋美</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>TCNz004:新SMS開発</t>
-        </is>
-      </c>
-      <c r="I69" s="1" t="n">
-        <v>45876</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>マニュアル作成</t>
-        </is>
-      </c>
-      <c r="L69">
-        <f>IFERROR(LEFT(K69,             FIND(",", K69) - 1), "-")</f>
-        <v/>
-      </c>
-      <c r="M69">
-        <f>IFERROR(MID(K69,             FIND(",", K69) + 1, LEN(K69) - FIND(",", K69)), K69)</f>
-        <v/>
-      </c>
-      <c r="N69" t="n">
-        <v>5</v>
-      </c>
       <c r="O69" s="2" t="n"/>
-      <c r="P69" s="2" t="inlineStr">
-        <is>
-          <t>09:30</t>
-        </is>
-      </c>
-      <c r="Q69" t="inlineStr">
-        <is>
-          <t>10:00</t>
-        </is>
-      </c>
+      <c r="P69" s="2" t="n"/>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>景山 朋美</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>TCNz004:新SMS開発</t>
-        </is>
-      </c>
-      <c r="D70">
-        <f>L70</f>
-        <v/>
-      </c>
-      <c r="E70">
-        <f>SUMIFS(J:J, G:G,             A70, H:H, B70, L:L, L70)</f>
-        <v/>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>景山 朋美</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>TCNz004:新SMS開発</t>
-        </is>
-      </c>
-      <c r="I70" s="1" t="n">
-        <v>45876</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>マニュアル作成</t>
-        </is>
-      </c>
-      <c r="L70">
-        <f>IFERROR(LEFT(K70,             FIND(",", K70) - 1), "-")</f>
-        <v/>
-      </c>
-      <c r="M70">
-        <f>IFERROR(MID(K70,             FIND(",", K70) + 1, LEN(K70) - FIND(",", K70)), K70)</f>
-        <v/>
-      </c>
-      <c r="N70" t="n">
-        <v>5</v>
-      </c>
       <c r="O70" s="2" t="n"/>
-      <c r="P70" s="2" t="inlineStr">
-        <is>
-          <t>10:30</t>
-        </is>
-      </c>
-      <c r="Q70" t="inlineStr">
-        <is>
-          <t>12:00</t>
-        </is>
-      </c>
+      <c r="P70" s="2" t="n"/>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>景山 朋美</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>TCNz004:新SMS開発</t>
-        </is>
-      </c>
-      <c r="D71">
-        <f>L71</f>
-        <v/>
-      </c>
-      <c r="E71">
-        <f>SUMIFS(J:J, G:G,             A71, H:H, B71, L:L, L71)</f>
-        <v/>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>景山 朋美</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>TCNz004:新SMS開発</t>
-        </is>
-      </c>
-      <c r="I71" s="1" t="n">
-        <v>45876</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>マニュアル作成</t>
-        </is>
-      </c>
-      <c r="L71">
-        <f>IFERROR(LEFT(K71,             FIND(",", K71) - 1), "-")</f>
-        <v/>
-      </c>
-      <c r="M71">
-        <f>IFERROR(MID(K71,             FIND(",", K71) + 1, LEN(K71) - FIND(",", K71)), K71)</f>
-        <v/>
-      </c>
-      <c r="N71" t="n">
-        <v>5</v>
-      </c>
       <c r="O71" s="2" t="n"/>
-      <c r="P71" s="2" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="Q71" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
+      <c r="P71" s="2" t="n"/>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>景山 朋美</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>TCNz004:新SMS開発</t>
-        </is>
-      </c>
-      <c r="D72">
-        <f>L72</f>
-        <v/>
-      </c>
-      <c r="E72">
-        <f>SUMIFS(J:J, G:G,             A72, H:H, B72, L:L, L72)</f>
-        <v/>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>景山 朋美</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>TCNz004:新SMS開発</t>
-        </is>
-      </c>
-      <c r="I72" s="1" t="n">
-        <v>45876</v>
-      </c>
-      <c r="J72" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>マニュアル作成</t>
-        </is>
-      </c>
-      <c r="L72">
-        <f>IFERROR(LEFT(K72,             FIND(",", K72) - 1), "-")</f>
-        <v/>
-      </c>
-      <c r="M72">
-        <f>IFERROR(MID(K72,             FIND(",", K72) + 1, LEN(K72) - FIND(",", K72)), K72)</f>
-        <v/>
-      </c>
-      <c r="N72" t="n">
-        <v>5</v>
-      </c>
       <c r="O72" s="2" t="n"/>
-      <c r="P72" s="2" t="inlineStr">
-        <is>
-          <t>14:30</t>
-        </is>
-      </c>
-      <c r="Q72" t="inlineStr">
-        <is>
-          <t>18:00</t>
-        </is>
-      </c>
+      <c r="P72" s="2" t="n"/>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>景山 朋美</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>TCNz004:新SMS開発</t>
-        </is>
-      </c>
-      <c r="D73">
-        <f>L73</f>
-        <v/>
-      </c>
-      <c r="E73">
-        <f>SUMIFS(J:J, G:G,             A73, H:H, B73, L:L, L73)</f>
-        <v/>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>景山 朋美</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>TCNz004:新SMS開発</t>
-        </is>
-      </c>
-      <c r="I73" s="1" t="n">
-        <v>45877</v>
-      </c>
-      <c r="J73" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>マニュアル作成</t>
-        </is>
-      </c>
-      <c r="L73">
-        <f>IFERROR(LEFT(K73,             FIND(",", K73) - 1), "-")</f>
-        <v/>
-      </c>
-      <c r="M73">
-        <f>IFERROR(MID(K73,             FIND(",", K73) + 1, LEN(K73) - FIND(",", K73)), K73)</f>
-        <v/>
-      </c>
-      <c r="N73" t="n">
-        <v>5</v>
-      </c>
       <c r="O73" s="2" t="n"/>
-      <c r="P73" s="2" t="inlineStr">
-        <is>
-          <t>09:30</t>
-        </is>
-      </c>
-      <c r="Q73" t="inlineStr">
-        <is>
-          <t>12:00</t>
-        </is>
-      </c>
+      <c r="P73" s="2" t="n"/>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>景山 朋美</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>TCNz004:新SMS開発</t>
-        </is>
-      </c>
-      <c r="D74">
-        <f>L74</f>
-        <v/>
-      </c>
-      <c r="E74">
-        <f>SUMIFS(J:J, G:G,             A74, H:H, B74, L:L, L74)</f>
-        <v/>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>景山 朋美</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>TCNz004:新SMS開発</t>
-        </is>
-      </c>
-      <c r="I74" s="1" t="n">
-        <v>45877</v>
-      </c>
-      <c r="J74" t="n">
-        <v>5</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>マニュアル作成</t>
-        </is>
-      </c>
-      <c r="L74">
-        <f>IFERROR(LEFT(K74,             FIND(",", K74) - 1), "-")</f>
-        <v/>
-      </c>
-      <c r="M74">
-        <f>IFERROR(MID(K74,             FIND(",", K74) + 1, LEN(K74) - FIND(",", K74)), K74)</f>
-        <v/>
-      </c>
-      <c r="N74" t="n">
-        <v>5</v>
-      </c>
       <c r="O74" s="2" t="n"/>
-      <c r="P74" s="2" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="Q74" t="inlineStr">
-        <is>
-          <t>18:00</t>
-        </is>
-      </c>
+      <c r="P74" s="2" t="n"/>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>景山 朋美</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>TCNz004:新SMS開発</t>
-        </is>
-      </c>
-      <c r="D75">
-        <f>L75</f>
-        <v/>
-      </c>
-      <c r="E75">
-        <f>SUMIFS(J:J, G:G,             A75, H:H, B75, L:L, L75)</f>
-        <v/>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>景山 朋美</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>TCNz004:新SMS開発</t>
-        </is>
-      </c>
-      <c r="I75" s="1" t="n">
-        <v>45881</v>
-      </c>
-      <c r="J75" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>マニュアル作成</t>
-        </is>
-      </c>
-      <c r="L75">
-        <f>IFERROR(LEFT(K75,             FIND(",", K75) - 1), "-")</f>
-        <v/>
-      </c>
-      <c r="M75">
-        <f>IFERROR(MID(K75,             FIND(",", K75) + 1, LEN(K75) - FIND(",", K75)), K75)</f>
-        <v/>
-      </c>
-      <c r="N75" t="n">
-        <v>5</v>
-      </c>
       <c r="O75" s="2" t="n"/>
-      <c r="P75" s="2" t="inlineStr">
-        <is>
-          <t>09:30</t>
-        </is>
-      </c>
-      <c r="Q75" t="inlineStr">
-        <is>
-          <t>12:00</t>
-        </is>
-      </c>
+      <c r="P75" s="2" t="n"/>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>景山 朋美</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>TCNz004:新SMS開発</t>
-        </is>
-      </c>
-      <c r="D76">
-        <f>L76</f>
-        <v/>
-      </c>
-      <c r="E76">
-        <f>SUMIFS(J:J, G:G,             A76, H:H, B76, L:L, L76)</f>
-        <v/>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>景山 朋美</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>TCNz004:新SMS開発</t>
-        </is>
-      </c>
-      <c r="I76" s="1" t="n">
-        <v>45881</v>
-      </c>
-      <c r="J76" t="n">
-        <v>5</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>マニュアル作成</t>
-        </is>
-      </c>
-      <c r="L76">
-        <f>IFERROR(LEFT(K76,             FIND(",", K76) - 1), "-")</f>
-        <v/>
-      </c>
-      <c r="M76">
-        <f>IFERROR(MID(K76,             FIND(",", K76) + 1, LEN(K76) - FIND(",", K76)), K76)</f>
-        <v/>
-      </c>
-      <c r="N76" t="n">
-        <v>5</v>
-      </c>
       <c r="O76" s="2" t="n"/>
-      <c r="P76" s="2" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="Q76" t="inlineStr">
-        <is>
-          <t>18:00</t>
-        </is>
-      </c>
+      <c r="P76" s="2" t="n"/>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>景山 朋美</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>TCNz004:新SMS開発</t>
-        </is>
-      </c>
-      <c r="D77">
-        <f>L77</f>
-        <v/>
-      </c>
-      <c r="E77">
-        <f>SUMIFS(J:J, G:G,             A77, H:H, B77, L:L, L77)</f>
-        <v/>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>景山 朋美</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>TCNz004:新SMS開発</t>
-        </is>
-      </c>
-      <c r="I77" s="1" t="n">
-        <v>45882</v>
-      </c>
-      <c r="J77" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>マニュアル作成</t>
-        </is>
-      </c>
-      <c r="L77">
-        <f>IFERROR(LEFT(K77,             FIND(",", K77) - 1), "-")</f>
-        <v/>
-      </c>
-      <c r="M77">
-        <f>IFERROR(MID(K77,             FIND(",", K77) + 1, LEN(K77) - FIND(",", K77)), K77)</f>
-        <v/>
-      </c>
-      <c r="N77" t="n">
-        <v>5</v>
-      </c>
       <c r="O77" s="2" t="n"/>
-      <c r="P77" s="2" t="inlineStr">
-        <is>
-          <t>09:30</t>
-        </is>
-      </c>
-      <c r="Q77" t="inlineStr">
-        <is>
-          <t>12:00</t>
-        </is>
-      </c>
+      <c r="P77" s="2" t="n"/>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>景山 朋美</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>TCNz004:新SMS開発</t>
-        </is>
-      </c>
-      <c r="D78">
-        <f>L78</f>
-        <v/>
-      </c>
-      <c r="E78">
-        <f>SUMIFS(J:J, G:G,             A78, H:H, B78, L:L, L78)</f>
-        <v/>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>景山 朋美</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>TCNz004:新SMS開発</t>
-        </is>
-      </c>
-      <c r="I78" s="1" t="n">
-        <v>45882</v>
-      </c>
-      <c r="J78" t="n">
-        <v>4</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>マニュアル作成</t>
-        </is>
-      </c>
-      <c r="L78">
-        <f>IFERROR(LEFT(K78,             FIND(",", K78) - 1), "-")</f>
-        <v/>
-      </c>
-      <c r="M78">
-        <f>IFERROR(MID(K78,             FIND(",", K78) + 1, LEN(K78) - FIND(",", K78)), K78)</f>
-        <v/>
-      </c>
-      <c r="N78" t="n">
-        <v>5</v>
-      </c>
       <c r="O78" s="2" t="n"/>
-      <c r="P78" s="2" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
-      <c r="Q78" t="inlineStr">
-        <is>
-          <t>18:00</t>
-        </is>
-      </c>
+      <c r="P78" s="2" t="n"/>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>景山 朋美</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>TCNz004:新SMS開発</t>
-        </is>
-      </c>
-      <c r="D79">
-        <f>L79</f>
-        <v/>
-      </c>
-      <c r="E79">
-        <f>SUMIFS(J:J, G:G,             A79, H:H, B79, L:L, L79)</f>
-        <v/>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>景山 朋美</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>TCNz004:新SMS開発</t>
-        </is>
-      </c>
-      <c r="I79" s="1" t="n">
-        <v>45883</v>
-      </c>
-      <c r="J79" t="n">
-        <v>1</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>マニュアル作成</t>
-        </is>
-      </c>
-      <c r="L79">
-        <f>IFERROR(LEFT(K79,             FIND(",", K79) - 1), "-")</f>
-        <v/>
-      </c>
-      <c r="M79">
-        <f>IFERROR(MID(K79,             FIND(",", K79) + 1, LEN(K79) - FIND(",", K79)), K79)</f>
-        <v/>
-      </c>
-      <c r="N79" t="n">
-        <v>5</v>
-      </c>
       <c r="O79" s="2" t="n"/>
-      <c r="P79" s="2" t="inlineStr">
-        <is>
-          <t>11:00</t>
-        </is>
-      </c>
-      <c r="Q79" t="inlineStr">
-        <is>
-          <t>12:00</t>
-        </is>
-      </c>
+      <c r="P79" s="2" t="n"/>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>景山 朋美</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>TCNz004:新SMS開発</t>
-        </is>
-      </c>
-      <c r="D80">
-        <f>L80</f>
-        <v/>
-      </c>
-      <c r="E80">
-        <f>SUMIFS(J:J, G:G,             A80, H:H, B80, L:L, L80)</f>
-        <v/>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>景山 朋美</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>TCNz004:新SMS開発</t>
-        </is>
-      </c>
-      <c r="I80" s="1" t="n">
-        <v>45883</v>
-      </c>
-      <c r="J80" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>マニュアル作成</t>
-        </is>
-      </c>
-      <c r="L80">
-        <f>IFERROR(LEFT(K80,             FIND(",", K80) - 1), "-")</f>
-        <v/>
-      </c>
-      <c r="M80">
-        <f>IFERROR(MID(K80,             FIND(",", K80) + 1, LEN(K80) - FIND(",", K80)), K80)</f>
-        <v/>
-      </c>
-      <c r="N80" t="n">
-        <v>5</v>
-      </c>
       <c r="O80" s="2" t="n"/>
-      <c r="P80" s="2" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="Q80" t="inlineStr">
-        <is>
-          <t>16:45</t>
-        </is>
-      </c>
+      <c r="P80" s="2" t="n"/>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>景山 朋美</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>TCNz004:新SMS開発</t>
-        </is>
-      </c>
-      <c r="D81">
-        <f>L81</f>
-        <v/>
-      </c>
-      <c r="E81">
-        <f>SUMIFS(J:J, G:G,             A81, H:H, B81, L:L, L81)</f>
-        <v/>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>景山 朋美</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>TCNz004:新SMS開発</t>
-        </is>
-      </c>
-      <c r="I81" s="1" t="n">
-        <v>45884</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>マニュアル作成</t>
-        </is>
-      </c>
-      <c r="L81">
-        <f>IFERROR(LEFT(K81,             FIND(",", K81) - 1), "-")</f>
-        <v/>
-      </c>
-      <c r="M81">
-        <f>IFERROR(MID(K81,             FIND(",", K81) + 1, LEN(K81) - FIND(",", K81)), K81)</f>
-        <v/>
-      </c>
-      <c r="N81" t="n">
-        <v>5</v>
-      </c>
       <c r="O81" s="2" t="n"/>
-      <c r="P81" s="2" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
-      </c>
-      <c r="Q81" t="inlineStr">
-        <is>
-          <t>18:00</t>
-        </is>
-      </c>
+      <c r="P81" s="2" t="n"/>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>景山 朋美</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>TCNz004:新SMS開発</t>
-        </is>
-      </c>
-      <c r="D82">
-        <f>L82</f>
-        <v/>
-      </c>
-      <c r="E82">
-        <f>SUMIFS(J:J, G:G,             A82, H:H, B82, L:L, L82)</f>
-        <v/>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>景山 朋美</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>TCNz004:新SMS開発</t>
-        </is>
-      </c>
-      <c r="I82" s="1" t="n">
-        <v>45889</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>マニュアル作成</t>
-        </is>
-      </c>
-      <c r="L82">
-        <f>IFERROR(LEFT(K82,             FIND(",", K82) - 1), "-")</f>
-        <v/>
-      </c>
-      <c r="M82">
-        <f>IFERROR(MID(K82,             FIND(",", K82) + 1, LEN(K82) - FIND(",", K82)), K82)</f>
-        <v/>
-      </c>
-      <c r="N82" t="n">
-        <v>5</v>
-      </c>
       <c r="O82" s="2" t="n"/>
-      <c r="P82" s="2" t="inlineStr">
-        <is>
-          <t>09:30</t>
-        </is>
-      </c>
-      <c r="Q82" t="inlineStr">
-        <is>
-          <t>12:00</t>
-        </is>
-      </c>
+      <c r="P82" s="2" t="n"/>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>景山 朋美</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>TCNz004:新SMS開発</t>
-        </is>
-      </c>
-      <c r="D83">
-        <f>L83</f>
-        <v/>
-      </c>
-      <c r="E83">
-        <f>SUMIFS(J:J, G:G,             A83, H:H, B83, L:L, L83)</f>
-        <v/>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>景山 朋美</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>TCNz004:新SMS開発</t>
-        </is>
-      </c>
-      <c r="I83" s="1" t="n">
-        <v>45889</v>
-      </c>
-      <c r="J83" t="n">
-        <v>5</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>マニュアル作成</t>
-        </is>
-      </c>
-      <c r="L83">
-        <f>IFERROR(LEFT(K83,             FIND(",", K83) - 1), "-")</f>
-        <v/>
-      </c>
-      <c r="M83">
-        <f>IFERROR(MID(K83,             FIND(",", K83) + 1, LEN(K83) - FIND(",", K83)), K83)</f>
-        <v/>
-      </c>
-      <c r="N83" t="n">
-        <v>5</v>
-      </c>
       <c r="O83" s="2" t="n"/>
-      <c r="P83" s="2" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="Q83" t="inlineStr">
-        <is>
-          <t>18:00</t>
-        </is>
-      </c>
+      <c r="P83" s="2" t="n"/>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>景山 朋美</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>TCNz004:新SMS開発</t>
-        </is>
-      </c>
-      <c r="D84">
-        <f>L84</f>
-        <v/>
-      </c>
-      <c r="E84">
-        <f>SUMIFS(J:J, G:G,             A84, H:H, B84, L:L, L84)</f>
-        <v/>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>景山 朋美</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>TCNz004:新SMS開発</t>
-        </is>
-      </c>
-      <c r="I84" s="1" t="n">
-        <v>45891</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>マニュアル作成</t>
-        </is>
-      </c>
-      <c r="L84">
-        <f>IFERROR(LEFT(K84,             FIND(",", K84) - 1), "-")</f>
-        <v/>
-      </c>
-      <c r="M84">
-        <f>IFERROR(MID(K84,             FIND(",", K84) + 1, LEN(K84) - FIND(",", K84)), K84)</f>
-        <v/>
-      </c>
-      <c r="N84" t="n">
-        <v>5</v>
-      </c>
       <c r="O84" s="2" t="n"/>
-      <c r="P84" s="2" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
-      <c r="Q84" t="inlineStr">
-        <is>
-          <t>15:30</t>
-        </is>
-      </c>
+      <c r="P84" s="2" t="n"/>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>景山 朋美</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>TCNz004:新SMS開発</t>
-        </is>
-      </c>
-      <c r="D85">
-        <f>L85</f>
-        <v/>
-      </c>
-      <c r="E85">
-        <f>SUMIFS(J:J, G:G,             A85, H:H, B85, L:L, L85)</f>
-        <v/>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>景山 朋美</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>TCNz004:新SMS開発</t>
-        </is>
-      </c>
-      <c r="I85" s="1" t="n">
-        <v>45894</v>
-      </c>
-      <c r="J85" t="n">
-        <v>3</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>マニュアル作成（田中さん分巻き取り）</t>
-        </is>
-      </c>
-      <c r="L85">
-        <f>IFERROR(LEFT(K85,             FIND(",", K85) - 1), "-")</f>
-        <v/>
-      </c>
-      <c r="M85">
-        <f>IFERROR(MID(K85,             FIND(",", K85) + 1, LEN(K85) - FIND(",", K85)), K85)</f>
-        <v/>
-      </c>
-      <c r="N85" t="n">
-        <v>5</v>
-      </c>
       <c r="O85" s="2" t="n"/>
-      <c r="P85" s="2" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-      <c r="Q85" t="inlineStr">
-        <is>
-          <t>18:00</t>
-        </is>
-      </c>
+      <c r="P85" s="2" t="n"/>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>景山 朋美</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>TCNz004:新SMS開発</t>
-        </is>
-      </c>
-      <c r="D86">
-        <f>L86</f>
-        <v/>
-      </c>
-      <c r="E86">
-        <f>SUMIFS(J:J, G:G,             A86, H:H, B86, L:L, L86)</f>
-        <v/>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>景山 朋美</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>TCNz004:新SMS開発</t>
-        </is>
-      </c>
-      <c r="I86" s="1" t="n">
-        <v>45895</v>
-      </c>
-      <c r="J86" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>マニュアル対応</t>
-        </is>
-      </c>
-      <c r="L86">
-        <f>IFERROR(LEFT(K86,             FIND(",", K86) - 1), "-")</f>
-        <v/>
-      </c>
-      <c r="M86">
-        <f>IFERROR(MID(K86,             FIND(",", K86) + 1, LEN(K86) - FIND(",", K86)), K86)</f>
-        <v/>
-      </c>
-      <c r="N86" t="n">
-        <v>5</v>
-      </c>
       <c r="O86" s="2" t="n"/>
-      <c r="P86" s="2" t="inlineStr">
-        <is>
-          <t>09:30</t>
-        </is>
-      </c>
-      <c r="Q86" t="inlineStr">
-        <is>
-          <t>12:00</t>
-        </is>
-      </c>
+      <c r="P86" s="2" t="n"/>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>景山 朋美</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>TCNz004:新SMS開発</t>
-        </is>
-      </c>
-      <c r="D87">
-        <f>L87</f>
-        <v/>
-      </c>
-      <c r="E87">
-        <f>SUMIFS(J:J, G:G,             A87, H:H, B87, L:L, L87)</f>
-        <v/>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>景山 朋美</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>TCNz004:新SMS開発</t>
-        </is>
-      </c>
-      <c r="I87" s="1" t="n">
-        <v>45895</v>
-      </c>
-      <c r="J87" t="n">
-        <v>3</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>マニュアル対応</t>
-        </is>
-      </c>
-      <c r="L87">
-        <f>IFERROR(LEFT(K87,             FIND(",", K87) - 1), "-")</f>
-        <v/>
-      </c>
-      <c r="M87">
-        <f>IFERROR(MID(K87,             FIND(",", K87) + 1, LEN(K87) - FIND(",", K87)), K87)</f>
-        <v/>
-      </c>
-      <c r="N87" t="n">
-        <v>5</v>
-      </c>
       <c r="O87" s="2" t="n"/>
-      <c r="P87" s="2" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="Q87" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
-      </c>
+      <c r="P87" s="2" t="n"/>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>景山 朋美</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>TCNz004:新SMS開発</t>
-        </is>
-      </c>
-      <c r="D88">
-        <f>L88</f>
-        <v/>
-      </c>
-      <c r="E88">
-        <f>SUMIFS(J:J, G:G,             A88, H:H, B88, L:L, L88)</f>
-        <v/>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>景山 朋美</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>TCNz004:新SMS開発</t>
-        </is>
-      </c>
-      <c r="I88" s="1" t="n">
-        <v>45896</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>マニュアル対応</t>
-        </is>
-      </c>
-      <c r="L88">
-        <f>IFERROR(LEFT(K88,             FIND(",", K88) - 1), "-")</f>
-        <v/>
-      </c>
-      <c r="M88">
-        <f>IFERROR(MID(K88,             FIND(",", K88) + 1, LEN(K88) - FIND(",", K88)), K88)</f>
-        <v/>
-      </c>
-      <c r="N88" t="n">
-        <v>5</v>
-      </c>
       <c r="O88" s="2" t="n"/>
-      <c r="P88" s="2" t="inlineStr">
-        <is>
-          <t>09:30</t>
-        </is>
-      </c>
-      <c r="Q88" t="inlineStr">
-        <is>
-          <t>10:30</t>
-        </is>
-      </c>
+      <c r="P88" s="2" t="n"/>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>景山 朋美</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>TCNz004:新SMS開発</t>
-        </is>
-      </c>
-      <c r="D89">
-        <f>L89</f>
-        <v/>
-      </c>
-      <c r="E89">
-        <f>SUMIFS(J:J, G:G,             A89, H:H, B89, L:L, L89)</f>
-        <v/>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>景山 朋美</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>TCNz004:新SMS開発</t>
-        </is>
-      </c>
-      <c r="I89" s="1" t="n">
-        <v>45896</v>
-      </c>
-      <c r="J89" t="n">
-        <v>2</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>マニュアル対応</t>
-        </is>
-      </c>
-      <c r="L89">
-        <f>IFERROR(LEFT(K89,             FIND(",", K89) - 1), "-")</f>
-        <v/>
-      </c>
-      <c r="M89">
-        <f>IFERROR(MID(K89,             FIND(",", K89) + 1, LEN(K89) - FIND(",", K89)), K89)</f>
-        <v/>
-      </c>
-      <c r="N89" t="n">
-        <v>5</v>
-      </c>
       <c r="O89" s="2" t="n"/>
-      <c r="P89" s="2" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
-      </c>
-      <c r="Q89" t="inlineStr">
-        <is>
-          <t>18:00</t>
-        </is>
-      </c>
+      <c r="P89" s="2" t="n"/>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>景山 朋美</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>TCNz004:新SMS開発</t>
-        </is>
-      </c>
-      <c r="D90">
-        <f>L90</f>
-        <v/>
-      </c>
-      <c r="E90">
-        <f>SUMIFS(J:J, G:G,             A90, H:H, B90, L:L, L90)</f>
-        <v/>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>景山 朋美</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>TCNz004:新SMS開発</t>
-        </is>
-      </c>
-      <c r="I90" s="1" t="n">
-        <v>45897</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>マニュアル対応</t>
-        </is>
-      </c>
-      <c r="L90">
-        <f>IFERROR(LEFT(K90,             FIND(",", K90) - 1), "-")</f>
-        <v/>
-      </c>
-      <c r="M90">
-        <f>IFERROR(MID(K90,             FIND(",", K90) + 1, LEN(K90) - FIND(",", K90)), K90)</f>
-        <v/>
-      </c>
-      <c r="N90" t="n">
-        <v>5</v>
-      </c>
       <c r="O90" s="2" t="n"/>
-      <c r="P90" s="2" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="Q90" t="inlineStr">
-        <is>
-          <t>13:30</t>
-        </is>
-      </c>
+      <c r="P90" s="2" t="n"/>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>景山 朋美</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>TCNz004:新SMS開発</t>
-        </is>
-      </c>
-      <c r="D91">
-        <f>L91</f>
-        <v/>
-      </c>
-      <c r="E91">
-        <f>SUMIFS(J:J, G:G,             A91, H:H, B91, L:L, L91)</f>
-        <v/>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>景山 朋美</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>TCNz004:新SMS開発</t>
-        </is>
-      </c>
-      <c r="I91" s="1" t="n">
-        <v>45890</v>
-      </c>
-      <c r="J91" t="n">
-        <v>5</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>マニュアル更新</t>
-        </is>
-      </c>
-      <c r="L91">
-        <f>IFERROR(LEFT(K91,             FIND(",", K91) - 1), "-")</f>
-        <v/>
-      </c>
-      <c r="M91">
-        <f>IFERROR(MID(K91,             FIND(",", K91) + 1, LEN(K91) - FIND(",", K91)), K91)</f>
-        <v/>
-      </c>
-      <c r="N91" t="n">
-        <v>5</v>
-      </c>
       <c r="O91" s="2" t="n"/>
-      <c r="P91" s="2" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="Q91" t="inlineStr">
-        <is>
-          <t>18:00</t>
-        </is>
-      </c>
+      <c r="P91" s="2" t="n"/>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>景山 朋美</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>TCNz004:新SMS開発</t>
-        </is>
-      </c>
-      <c r="D92">
-        <f>L92</f>
-        <v/>
-      </c>
-      <c r="E92">
-        <f>SUMIFS(J:J, G:G,             A92, H:H, B92, L:L, L92)</f>
-        <v/>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>景山 朋美</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>TCNz004:新SMS開発</t>
-        </is>
-      </c>
-      <c r="I92" s="1" t="n">
-        <v>45874</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>マニュアル確認</t>
-        </is>
-      </c>
-      <c r="L92">
-        <f>IFERROR(LEFT(K92,             FIND(",", K92) - 1), "-")</f>
-        <v/>
-      </c>
-      <c r="M92">
-        <f>IFERROR(MID(K92,             FIND(",", K92) + 1, LEN(K92) - FIND(",", K92)), K92)</f>
-        <v/>
-      </c>
-      <c r="N92" t="n">
-        <v>5</v>
-      </c>
       <c r="O92" s="2" t="n"/>
-      <c r="P92" s="2" t="inlineStr">
-        <is>
-          <t>16:30</t>
-        </is>
-      </c>
-      <c r="Q92" t="inlineStr">
-        <is>
-          <t>18:00</t>
-        </is>
-      </c>
+      <c r="P92" s="2" t="n"/>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>景山 朋美</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>TCNz004:新SMS開発</t>
-        </is>
-      </c>
-      <c r="D93">
-        <f>L93</f>
-        <v/>
-      </c>
-      <c r="E93">
-        <f>SUMIFS(J:J, G:G,             A93, H:H, B93, L:L, L93)</f>
-        <v/>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>景山 朋美</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>TCNz004:新SMS開発</t>
-        </is>
-      </c>
-      <c r="I93" s="1" t="n">
-        <v>45898</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>工数記録</t>
-        </is>
-      </c>
-      <c r="L93">
-        <f>IFERROR(LEFT(K93,             FIND(",", K93) - 1), "-")</f>
-        <v/>
-      </c>
-      <c r="M93">
-        <f>IFERROR(MID(K93,             FIND(",", K93) + 1, LEN(K93) - FIND(",", K93)), K93)</f>
-        <v/>
-      </c>
-      <c r="N93" t="n">
-        <v>5</v>
-      </c>
       <c r="O93" s="2" t="n"/>
-      <c r="P93" s="2" t="inlineStr">
-        <is>
-          <t>17:00</t>
-        </is>
-      </c>
-      <c r="Q93" t="inlineStr">
-        <is>
-          <t>18:00</t>
-        </is>
-      </c>
+      <c r="P93" s="2" t="n"/>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>景山 朋美</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>TCNz004:新SMS開発</t>
-        </is>
-      </c>
-      <c r="D94">
-        <f>L94</f>
-        <v/>
-      </c>
-      <c r="E94">
-        <f>SUMIFS(J:J, G:G,             A94, H:H, B94, L:L, L94)</f>
-        <v/>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>景山 朋美</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>TCNz004:新SMS開発</t>
-        </is>
-      </c>
-      <c r="I94" s="1" t="n">
-        <v>45883</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>生_MTGMTGのネタ探し</t>
-        </is>
-      </c>
-      <c r="L94">
-        <f>IFERROR(LEFT(K94,             FIND(",", K94) - 1), "-")</f>
-        <v/>
-      </c>
-      <c r="M94">
-        <f>IFERROR(MID(K94,             FIND(",", K94) + 1, LEN(K94) - FIND(",", K94)), K94)</f>
-        <v/>
-      </c>
-      <c r="N94" t="n">
-        <v>5</v>
-      </c>
       <c r="O94" s="2" t="n"/>
-      <c r="P94" s="2" t="inlineStr">
-        <is>
-          <t>17:15</t>
-        </is>
-      </c>
-      <c r="Q94" t="inlineStr">
-        <is>
-          <t>18:00</t>
-        </is>
-      </c>
+      <c r="P94" s="2" t="n"/>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>景山 朋美</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>TCNz004:新SMS開発</t>
-        </is>
-      </c>
-      <c r="D95">
-        <f>L95</f>
-        <v/>
-      </c>
-      <c r="E95">
-        <f>SUMIFS(J:J, G:G,             A95, H:H, B95, L:L, L95)</f>
-        <v/>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>景山 朋美</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>TCNz004:新SMS開発</t>
-        </is>
-      </c>
-      <c r="I95" s="1" t="n">
-        <v>45894</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>生成AI勉強の準備</t>
-        </is>
-      </c>
-      <c r="L95">
-        <f>IFERROR(LEFT(K95,             FIND(",", K95) - 1), "-")</f>
-        <v/>
-      </c>
-      <c r="M95">
-        <f>IFERROR(MID(K95,             FIND(",", K95) + 1, LEN(K95) - FIND(",", K95)), K95)</f>
-        <v/>
-      </c>
-      <c r="N95" t="n">
-        <v>5</v>
-      </c>
       <c r="O95" s="2" t="n"/>
-      <c r="P95" s="2" t="inlineStr">
-        <is>
-          <t>13:30</t>
-        </is>
-      </c>
-      <c r="Q95" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
+      <c r="P95" s="2" t="n"/>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>景山 朋美</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>TCNz004:新SMS開発</t>
-        </is>
-      </c>
-      <c r="D96">
-        <f>L96</f>
-        <v/>
-      </c>
-      <c r="E96">
-        <f>SUMIFS(J:J, G:G,             A96, H:H, B96, L:L, L96)</f>
-        <v/>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>景山 朋美</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>TCNz004:新SMS開発</t>
-        </is>
-      </c>
-      <c r="I96" s="1" t="n">
-        <v>45890</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>生成AI勉強会資料作成</t>
-        </is>
-      </c>
-      <c r="L96">
-        <f>IFERROR(LEFT(K96,             FIND(",", K96) - 1), "-")</f>
-        <v/>
-      </c>
-      <c r="M96">
-        <f>IFERROR(MID(K96,             FIND(",", K96) + 1, LEN(K96) - FIND(",", K96)), K96)</f>
-        <v/>
-      </c>
-      <c r="N96" t="n">
-        <v>5</v>
-      </c>
       <c r="O96" s="2" t="n"/>
-      <c r="P96" s="2" t="inlineStr">
-        <is>
-          <t>11:00</t>
-        </is>
-      </c>
-      <c r="Q96" t="inlineStr">
-        <is>
-          <t>12:00</t>
-        </is>
-      </c>
+      <c r="P96" s="2" t="n"/>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>景山 朋美</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>TCNz004:新SMS開発</t>
-        </is>
-      </c>
-      <c r="D97">
-        <f>L97</f>
-        <v/>
-      </c>
-      <c r="E97">
-        <f>SUMIFS(J:J, G:G,             A97, H:H, B97, L:L, L97)</f>
-        <v/>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>景山 朋美</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>TCNz004:新SMS開発</t>
-        </is>
-      </c>
-      <c r="I97" s="1" t="n">
-        <v>45873</v>
-      </c>
-      <c r="J97" t="n">
-        <v>4</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>結合試験</t>
-        </is>
-      </c>
-      <c r="L97">
-        <f>IFERROR(LEFT(K97,             FIND(",", K97) - 1), "-")</f>
-        <v/>
-      </c>
-      <c r="M97">
-        <f>IFERROR(MID(K97,             FIND(",", K97) + 1, LEN(K97) - FIND(",", K97)), K97)</f>
-        <v/>
-      </c>
-      <c r="N97" t="n">
-        <v>5</v>
-      </c>
       <c r="O97" s="2" t="n"/>
-      <c r="P97" s="2" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
-      <c r="Q97" t="inlineStr">
-        <is>
-          <t>18:00</t>
-        </is>
-      </c>
+      <c r="P97" s="2" t="n"/>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>景山 朋美</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>TCNz004:新SMS開発</t>
-        </is>
-      </c>
-      <c r="D98">
-        <f>L98</f>
-        <v/>
-      </c>
-      <c r="E98">
-        <f>SUMIFS(J:J, G:G,             A98, H:H, B98, L:L, L98)</f>
-        <v/>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>景山 朋美</t>
-        </is>
-      </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>TCNz004:新SMS開発</t>
-        </is>
-      </c>
-      <c r="I98" s="1" t="n">
-        <v>45874</v>
-      </c>
-      <c r="J98" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>結合試験</t>
-        </is>
-      </c>
-      <c r="L98">
-        <f>IFERROR(LEFT(K98,             FIND(",", K98) - 1), "-")</f>
-        <v/>
-      </c>
-      <c r="M98">
-        <f>IFERROR(MID(K98,             FIND(",", K98) + 1, LEN(K98) - FIND(",", K98)), K98)</f>
-        <v/>
-      </c>
-      <c r="N98" t="n">
-        <v>5</v>
-      </c>
       <c r="O98" s="2" t="n"/>
-      <c r="P98" s="2" t="inlineStr">
-        <is>
-          <t>09:30</t>
-        </is>
-      </c>
-      <c r="Q98" t="inlineStr">
-        <is>
-          <t>12:00</t>
-        </is>
-      </c>
+      <c r="P98" s="2" t="n"/>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>景山 朋美</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>TCNz004:新SMS開発</t>
-        </is>
-      </c>
-      <c r="D99">
-        <f>L99</f>
-        <v/>
-      </c>
-      <c r="E99">
-        <f>SUMIFS(J:J, G:G,             A99, H:H, B99, L:L, L99)</f>
-        <v/>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>景山 朋美</t>
-        </is>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>TCNz004:新SMS開発</t>
-        </is>
-      </c>
-      <c r="I99" s="1" t="n">
-        <v>45876</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>進捗管理,(島村)状況報告</t>
-        </is>
-      </c>
-      <c r="L99">
-        <f>IFERROR(LEFT(K99,             FIND(",", K99) - 1), "-")</f>
-        <v/>
-      </c>
-      <c r="M99">
-        <f>IFERROR(MID(K99,             FIND(",", K99) + 1, LEN(K99) - FIND(",", K99)), K99)</f>
-        <v/>
-      </c>
-      <c r="N99" t="n">
-        <v>5</v>
-      </c>
       <c r="O99" s="2" t="n"/>
-      <c r="P99" s="2" t="inlineStr">
-        <is>
-          <t>10:00</t>
-        </is>
-      </c>
-      <c r="Q99" t="inlineStr">
-        <is>
-          <t>10:30</t>
-        </is>
-      </c>
+      <c r="P99" s="2" t="n"/>
     </row>
     <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>景山 朋美</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>TCNz007:AlmaLinux 9 MySQL8.4 テスト</t>
-        </is>
-      </c>
-      <c r="C100">
-        <f>SUMIFS(J:J, G:G,             A100, H:H, B100)</f>
-        <v/>
-      </c>
-      <c r="D100">
-        <f>L100</f>
-        <v/>
-      </c>
-      <c r="E100">
-        <f>SUMIFS(J:J, G:G,             A100, H:H, B100, L:L, L100)</f>
-        <v/>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>景山 朋美</t>
-        </is>
-      </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>TCNz007:AlmaLinux 9 MySQL8.4 テスト</t>
-        </is>
-      </c>
-      <c r="I100" s="1" t="n">
-        <v>45891</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>MYSQLバージョンアップ対応_状況復習</t>
-        </is>
-      </c>
-      <c r="L100">
-        <f>IFERROR(LEFT(K100,             FIND(",", K100) - 1), "-")</f>
-        <v/>
-      </c>
-      <c r="M100">
-        <f>IFERROR(MID(K100,             FIND(",", K100) + 1, LEN(K100) - FIND(",", K100)), K100)</f>
-        <v/>
-      </c>
-      <c r="N100" t="n">
-        <v>7</v>
-      </c>
       <c r="O100" s="2" t="n"/>
-      <c r="P100" s="2" t="inlineStr">
-        <is>
-          <t>15:30</t>
-        </is>
-      </c>
-      <c r="Q100" t="inlineStr">
-        <is>
-          <t>18:00</t>
-        </is>
-      </c>
+      <c r="P100" s="2" t="n"/>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>景山 朋美</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>TCNz007:AlmaLinux 9 MySQL8.4 テスト</t>
-        </is>
-      </c>
-      <c r="D101">
-        <f>L101</f>
-        <v/>
-      </c>
-      <c r="E101">
-        <f>SUMIFS(J:J, G:G,             A101, H:H, B101, L:L, L101)</f>
-        <v/>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>景山 朋美</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>TCNz007:AlmaLinux 9 MySQL8.4 テスト</t>
-        </is>
-      </c>
-      <c r="I101" s="1" t="n">
-        <v>45896</v>
-      </c>
-      <c r="J101" t="n">
-        <v>3</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>MySQLアップグレード調査</t>
-        </is>
-      </c>
-      <c r="L101">
-        <f>IFERROR(LEFT(K101,             FIND(",", K101) - 1), "-")</f>
-        <v/>
-      </c>
-      <c r="M101">
-        <f>IFERROR(MID(K101,             FIND(",", K101) + 1, LEN(K101) - FIND(",", K101)), K101)</f>
-        <v/>
-      </c>
-      <c r="N101" t="n">
-        <v>7</v>
-      </c>
       <c r="O101" s="2" t="n"/>
-      <c r="P101" s="2" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="Q101" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
-      </c>
+      <c r="P101" s="2" t="n"/>
     </row>
     <row r="102">
       <c r="O102" s="2" t="n"/>
